--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB11151F-C5D8-4742-9C6F-FEB18832E078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF228722-9B32-D642-B57E-E3FB8AE87254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10760" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +161,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,8 +177,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,24 +187,14 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -259,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -341,11 +323,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,70 +371,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,49 +392,7 @@
     <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,7 +425,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,7 +798,7 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="107" zoomScaleNormal="64" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+      <selection activeCell="M35" sqref="M35"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -846,7 +806,7 @@
       </extLst>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
@@ -864,76 +824,76 @@
     <col min="31" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="91.5" customHeight="1"/>
-    <row r="2" spans="1:34" ht="31">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:34" ht="91.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:34" ht="31" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="46"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="15"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:34" ht="26">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:34" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="49"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="18"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="20" customHeight="1">
+    <row r="4" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -982,7 +942,7 @@
       <c r="P4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -1025,574 +985,574 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="30" customHeight="1">
+    <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>111</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="8">
         <v>201</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="6">
         <v>311</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="13"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="6">
         <v>411</v>
       </c>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="13"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
       <c r="U5" s="6">
         <v>511</v>
       </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="27"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="26"/>
       <c r="Z5" s="6">
         <v>611</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="13"/>
-    </row>
-    <row r="6" spans="1:34" ht="30" customHeight="1">
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="28"/>
+    </row>
+    <row r="6" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>112</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="8">
         <v>211</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="6">
         <v>312</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="37"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="6">
         <v>412</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
       <c r="U6" s="6">
         <v>512</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="27"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="6">
         <v>612</v>
       </c>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="13"/>
-    </row>
-    <row r="7" spans="1:34" ht="30" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="14">
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="28"/>
+    </row>
+    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="8">
         <v>212</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="6">
         <v>314</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="6">
         <v>414</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="13"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="6">
         <v>514</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="27"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="26"/>
       <c r="Z7" s="6">
         <v>614</v>
       </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="13"/>
-    </row>
-    <row r="8" spans="1:34" ht="30" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="14">
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="28"/>
+    </row>
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="8">
         <v>214</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="6">
         <v>315</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="6">
         <v>415</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="13"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
       <c r="U8" s="6">
         <v>515</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="40"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="6">
         <v>615</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="13"/>
-    </row>
-    <row r="9" spans="1:34" ht="30" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="14">
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="28"/>
+    </row>
+    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="8">
         <v>221</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="15"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="6">
         <v>316</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="6">
         <v>421</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="13"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="6">
         <v>516</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="27"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="26"/>
       <c r="Z9" s="6">
         <v>616</v>
       </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="13"/>
-    </row>
-    <row r="10" spans="1:34" ht="30" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="14">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="28"/>
+    </row>
+    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="8">
         <v>222</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="6">
         <v>317</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="6">
         <v>422</v>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="13"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="6">
         <v>517</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="27"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="26"/>
       <c r="Z10" s="6">
         <v>621</v>
       </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:34" ht="30" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="14">
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="28"/>
+    </row>
+    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="8">
         <v>223</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="15"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="6">
         <v>321</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="6">
         <v>423</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
       <c r="U11" s="6">
         <v>521</v>
       </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="26"/>
       <c r="Z11" s="6">
         <v>622</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="13"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="28"/>
       <c r="AH11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="30" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="14">
+    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="8">
         <v>224</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="6">
         <v>322</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="6">
         <v>424</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
       <c r="U12" s="6">
         <v>522</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="27"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
       <c r="Z12" s="6">
         <v>623</v>
       </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="13"/>
-    </row>
-    <row r="13" spans="1:34" ht="30" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="14">
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="28"/>
+    </row>
+    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="8">
         <v>231</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="6">
         <v>323</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="6">
         <v>425</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="13"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28"/>
       <c r="U13" s="6">
         <v>523</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="27"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="26"/>
       <c r="Z13" s="6">
         <v>624</v>
       </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="13"/>
-    </row>
-    <row r="14" spans="1:34" ht="30" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="14">
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="28"/>
+    </row>
+    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="8">
         <v>232</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="6">
         <v>324</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="6">
         <v>431</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="13"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
       <c r="U14" s="6">
         <v>524</v>
       </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="27"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="26"/>
       <c r="Z14" s="6">
         <v>625</v>
       </c>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="13"/>
-    </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="28"/>
+    </row>
+    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
       <c r="P15" s="6">
         <v>432</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="13"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
       <c r="U15" s="6">
         <v>525</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="40"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="26"/>
       <c r="Z15" s="6">
         <v>631</v>
       </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="28"/>
+    </row>
+    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="6">
         <v>526</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-    </row>
-    <row r="17" spans="1:36" ht="30" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+    </row>
+    <row r="17" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="6">
         <v>531</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-    </row>
-    <row r="18" spans="1:36" ht="30" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+    </row>
+    <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="6">
         <v>532</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-    </row>
-    <row r="19" spans="1:36" ht="30" customHeight="1">
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+    </row>
+    <row r="19" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1601,7 @@
       <c r="P19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="43" t="s">
+      <c r="Q19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="4" t="s">
@@ -1687,655 +1647,655 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="30" customHeight="1">
-      <c r="A20" s="9">
+    <row r="20" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>711</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="6">
         <v>811</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="6">
         <v>911</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="13"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
       <c r="P20" s="6">
         <v>1011</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="13"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
       <c r="U20" s="6">
         <v>1111</v>
       </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="13"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="28"/>
       <c r="Z20" s="6">
         <v>1211</v>
       </c>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="13"/>
-    </row>
-    <row r="21" spans="1:36" ht="30" customHeight="1">
-      <c r="A21" s="9">
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="28"/>
+    </row>
+    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>712</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="6">
         <v>812</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="6">
         <v>912</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="13"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="6">
         <v>1012</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="15"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="29"/>
       <c r="U21" s="6">
         <v>1112</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="37"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
       <c r="Z21" s="6">
         <v>1212</v>
       </c>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="13"/>
-    </row>
-    <row r="22" spans="1:36" ht="30" customHeight="1">
-      <c r="A22" s="9">
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>714</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="6">
         <v>814</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="13"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="6">
         <v>914</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="44"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="6">
         <v>1014</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="13"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
       <c r="U22" s="6">
         <v>1114</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="13"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
       <c r="Z22" s="6">
         <v>1214</v>
       </c>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="56"/>
-    </row>
-    <row r="23" spans="1:36" ht="30" customHeight="1">
-      <c r="A23" s="9">
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="31"/>
+    </row>
+    <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>715</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="6">
         <v>815</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="13"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="6">
         <v>915</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="15"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="6">
         <v>1015</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="15"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="29"/>
       <c r="U23" s="6">
         <v>1115</v>
       </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="13"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
       <c r="Z23" s="6">
         <v>1215</v>
       </c>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="15"/>
-    </row>
-    <row r="24" spans="1:36" ht="30" customHeight="1">
-      <c r="A24" s="9">
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="29"/>
+    </row>
+    <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>716</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="6">
         <v>821</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="13"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="6">
         <v>916</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="13"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="6">
         <v>1016</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="15"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="29"/>
       <c r="U24" s="6">
         <v>1116</v>
       </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="13"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
       <c r="Z24" s="6">
         <v>1216</v>
       </c>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="15"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="29"/>
       <c r="AH24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="30" customHeight="1">
-      <c r="A25" s="9">
+    <row r="25" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>717</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="6">
         <v>822</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="6">
         <v>921</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="6">
         <v>1021</v>
       </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="15"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="29"/>
       <c r="U25" s="6">
         <v>1117</v>
       </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="13"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
       <c r="Z25" s="6">
         <v>1217</v>
       </c>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="15"/>
-    </row>
-    <row r="26" spans="1:36" ht="30" customHeight="1">
-      <c r="A26" s="9">
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="29"/>
+    </row>
+    <row r="26" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>721</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="6">
         <v>823</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="6">
         <v>922</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="13"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="6">
         <v>1022</v>
       </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="15"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="29"/>
       <c r="U26" s="6">
         <v>1118</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="13"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
       <c r="Z26" s="6">
         <v>1221</v>
       </c>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="15"/>
-    </row>
-    <row r="27" spans="1:36" ht="30" customHeight="1">
-      <c r="A27" s="9">
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="29"/>
+    </row>
+    <row r="27" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>722</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="6">
         <v>824</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="13"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="6">
         <v>923</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="13"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="6">
         <v>1023</v>
       </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="15"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="29"/>
       <c r="U27" s="6">
         <v>1121</v>
       </c>
-      <c r="V27" s="10"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="13"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="28"/>
       <c r="Z27" s="6">
         <v>1222</v>
       </c>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="15"/>
-    </row>
-    <row r="28" spans="1:36" ht="30" customHeight="1">
-      <c r="A28" s="9">
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="29"/>
+    </row>
+    <row r="28" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>723</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="6">
         <v>831</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="6">
         <v>924</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="13"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="6">
         <v>1024</v>
       </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="15"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="29"/>
       <c r="U28" s="6">
         <v>1122</v>
       </c>
-      <c r="V28" s="10"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="13"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="28"/>
       <c r="Z28" s="6">
         <v>1223</v>
       </c>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="15"/>
-    </row>
-    <row r="29" spans="1:36" ht="30" customHeight="1">
-      <c r="A29" s="9">
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="29"/>
+    </row>
+    <row r="29" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>724</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="6">
         <v>832</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="13"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="6">
         <v>925</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="13"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="6">
         <v>1025</v>
       </c>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="15"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="29"/>
       <c r="U29" s="6">
         <v>1123</v>
       </c>
-      <c r="V29" s="33"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="13"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="28"/>
       <c r="Z29" s="6">
         <v>1224</v>
       </c>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="13"/>
-    </row>
-    <row r="30" spans="1:36" ht="30" customHeight="1">
-      <c r="A30" s="9">
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="28"/>
+    </row>
+    <row r="30" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>725</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="6">
         <v>931</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="13"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="6">
         <v>1026</v>
       </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="15"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="29"/>
       <c r="U30" s="6">
         <v>1124</v>
       </c>
-      <c r="V30" s="10"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="13"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="28"/>
       <c r="Z30" s="6">
         <v>1225</v>
       </c>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="15"/>
-    </row>
-    <row r="31" spans="1:36" ht="30" customHeight="1">
-      <c r="A31" s="9">
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="29"/>
+    </row>
+    <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>726</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="6">
         <v>932</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="6">
         <v>1125</v>
       </c>
-      <c r="V31" s="33"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="13"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="28"/>
       <c r="Z31" s="6">
         <v>1226</v>
       </c>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="15"/>
-    </row>
-    <row r="32" spans="1:36" ht="30" customHeight="1">
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="29"/>
+    </row>
+    <row r="32" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>731</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="6">
         <v>1126</v>
       </c>
-      <c r="V32" s="10"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="13"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="28"/>
       <c r="Z32" s="6">
         <v>1231</v>
       </c>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="15"/>
-    </row>
-    <row r="33" spans="1:30" ht="30" customHeight="1">
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="29"/>
+    </row>
+    <row r="33" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>732</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
       <c r="U33" s="6">
         <v>1127</v>
       </c>
-      <c r="V33" s="35"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="13"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="28"/>
       <c r="Z33" s="6">
         <v>1232</v>
       </c>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="13"/>
-    </row>
-    <row r="34" spans="1:30" ht="30" hidden="1" customHeight="1">
-      <c r="A34" s="50" t="s">
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="28"/>
+    </row>
+    <row r="34" spans="1:30" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="29">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="12">
         <f>SUM(B5:B6,G5:G14,L5:L14,Q5:Q15,V5:V18,AA5:AA15,B20:B33,G20:G29,L20:L31,Q20:Q30,V20:V33,AA20:AA33)</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="30">
+      <c r="AB34" s="13">
         <f>SUM(C5:C6,H5:H14,M5:M14,R5:R15,W5:W18,AB5:AB15,C20:C33,H20:H29,M20:M31,R20:R30,W20:W33,AB20:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-    </row>
-    <row r="35" spans="1:30" ht="30" customHeight="1"/>
-    <row r="36" spans="1:30" ht="30" hidden="1" customHeight="1">
-      <c r="K36" s="21"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+    </row>
+    <row r="35" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:30" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="10"/>
       <c r="L36" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="30" hidden="1" customHeight="1">
+    <row r="37" spans="1:30" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2343,38 +2303,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="30" customHeight="1">
-      <c r="F38" s="45" t="s">
+    <row r="38" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="45" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="45" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-    </row>
-    <row r="39" spans="1:30" ht="30" customHeight="1">
-      <c r="F39" s="18"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="9"/>
       <c r="X39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="30" customHeight="1">
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:30" ht="30" customHeight="1">
-      <c r="V41" s="28"/>
-    </row>
-    <row r="42" spans="1:30" ht="30" customHeight="1"/>
-    <row r="43" spans="1:30" ht="30" customHeight="1"/>
+    <row r="40" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:AB2"/>
@@ -2401,7 +2362,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2414,7 +2375,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
